--- a/tax_globe_data.xlsx
+++ b/tax_globe_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danneidle/Coding/tax_globe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6F46EB-05BC-AF4E-B100-64CE37683E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB19718C-5202-F34D-880D-4A47EA359C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7740" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{CAE2DA44-26E3-3048-AA03-10749120A30C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="352">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1072,6 +1072,27 @@
   </si>
   <si>
     <t>implementing</t>
+  </si>
+  <si>
+    <t>Wealth tax</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>Developing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela </t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>OECD</t>
   </si>
 </sst>
 </file>
@@ -1423,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6989D424-3040-FA43-A636-B7984BDC4311}">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1434,7 +1455,7 @@
     <col min="2" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1453,8 +1474,11 @@
       <c r="F1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1474,7 +1498,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1494,7 +1518,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -1505,7 +1529,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1525,7 +1549,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -1545,7 +1569,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1564,8 +1588,11 @@
       <c r="F7" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1579,7 +1606,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1599,7 +1626,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1616,7 +1643,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1636,7 +1663,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1656,7 +1683,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1676,7 +1703,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1696,7 +1723,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1716,7 +1743,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1736,7 +1763,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1756,7 +1783,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>262</v>
       </c>
@@ -1767,7 +1794,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1787,346 +1814,340 @@
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B20" t="s">
+        <v>347</v>
+      </c>
+      <c r="G20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>264</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>265</v>
       </c>
-      <c r="F20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="F21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>143</v>
       </c>
-      <c r="C21">
-        <v>2018</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C22">
+        <v>2018</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>99</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>144</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>2017</v>
       </c>
-      <c r="D22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>100</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>145</v>
       </c>
-      <c r="C23">
-        <v>2018</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="C24">
+        <v>2018</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>146</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>2017</v>
       </c>
-      <c r="D24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>266</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>267</v>
       </c>
-      <c r="F25" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="F26" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>268</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>269</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>270</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>271</v>
       </c>
-      <c r="F27" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="F28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>147</v>
       </c>
-      <c r="C28">
-        <v>2018</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C29">
+        <v>2018</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>101</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>148</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>2017</v>
       </c>
-      <c r="D29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>272</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>273</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>149</v>
       </c>
-      <c r="C31">
-        <v>2018</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="C32">
+        <v>2018</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>102</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>150</v>
       </c>
-      <c r="C32">
-        <v>2018</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="C33">
+        <v>2018</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>21</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>151</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>2017</v>
       </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="G34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>274</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>275</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>103</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>152</v>
       </c>
-      <c r="C35">
-        <v>2018</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="C36">
+        <v>2018</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>104</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>153</v>
       </c>
-      <c r="C36">
-        <v>2018</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="C37">
+        <v>2018</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>22</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>154</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>2017</v>
       </c>
-      <c r="D37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>23</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>155</v>
       </c>
-      <c r="C38">
-        <v>2018</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="C39">
+        <v>2018</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>24</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>156</v>
-      </c>
-      <c r="C39">
-        <v>2017</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>157</v>
       </c>
       <c r="C40">
         <v>2017</v>
@@ -2141,122 +2162,125 @@
         <v>253</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41">
+        <v>2017</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>276</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>277</v>
       </c>
-      <c r="F41" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="F42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>25</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>158</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>2017</v>
       </c>
-      <c r="D42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>26</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>159</v>
       </c>
-      <c r="C43">
-        <v>2018</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="C44">
+        <v>2018</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>27</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>160</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>2021</v>
       </c>
-      <c r="D44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="G45" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>278</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>279</v>
       </c>
-      <c r="F45" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="F46" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>280</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>281</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>28</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>161</v>
-      </c>
-      <c r="C47">
-        <v>2017</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" t="s">
-        <v>162</v>
       </c>
       <c r="C48">
         <v>2017</v>
@@ -2268,15 +2292,15 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>342</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49">
         <v>2017</v>
@@ -2288,15 +2312,15 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>253</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50">
         <v>2017</v>
@@ -2313,24 +2337,30 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>283</v>
+        <v>164</v>
+      </c>
+      <c r="C51">
+        <v>2017</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>342</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
-      </c>
-      <c r="C52">
-        <v>2024</v>
+        <v>283</v>
       </c>
       <c r="F52" t="s">
         <v>342</v>
@@ -2338,64 +2368,58 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C53">
-        <v>2017</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1</v>
+        <v>2024</v>
       </c>
       <c r="F53" t="s">
-        <v>253</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C54">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C55">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
       </c>
-      <c r="E55" t="s">
-        <v>1</v>
-      </c>
       <c r="F55" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C56">
         <v>2017</v>
@@ -2407,18 +2431,18 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>253</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C57">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -2427,15 +2451,15 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>342</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C58">
         <v>2018</v>
@@ -2452,13 +2476,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C59">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -2467,20 +2491,23 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C60">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
         <v>1</v>
       </c>
       <c r="F60" t="s">
@@ -2489,27 +2516,27 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C61">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>253</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C62">
         <v>2017</v>
@@ -2517,19 +2544,16 @@
       <c r="D62" t="s">
         <v>1</v>
       </c>
-      <c r="E62" t="s">
-        <v>1</v>
-      </c>
       <c r="F62" t="s">
-        <v>342</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C63">
         <v>2017</v>
@@ -2541,18 +2565,18 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C64">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
@@ -2566,13 +2590,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C65">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D65" t="s">
         <v>1</v>
@@ -2581,15 +2605,15 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>253</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C66">
         <v>2017</v>
@@ -2601,18 +2625,18 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>344</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C67">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
@@ -2621,18 +2645,18 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C68">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
@@ -2641,52 +2665,52 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>253</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C69">
-        <v>2022</v>
+        <v>2017</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>342</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C70">
-        <v>2018</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1</v>
+        <v>2022</v>
       </c>
       <c r="F70" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C71">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
@@ -2700,27 +2724,33 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C72">
-        <v>2023</v>
+        <v>2017</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C73">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="F73" t="s">
         <v>342</v>
@@ -2728,84 +2758,78 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C74">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="F74" t="s">
-        <v>261</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C75">
-        <v>2017</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1</v>
+        <v>2024</v>
       </c>
       <c r="F75" t="s">
-        <v>344</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C76">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
       </c>
+      <c r="E76" t="s">
+        <v>1</v>
+      </c>
       <c r="F76" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C77">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
       </c>
-      <c r="E77" t="s">
-        <v>1</v>
-      </c>
       <c r="F77" t="s">
-        <v>253</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C78">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
@@ -2814,15 +2838,24 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>343</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>284</v>
+        <v>55</v>
       </c>
       <c r="B79" t="s">
-        <v>285</v>
+        <v>191</v>
+      </c>
+      <c r="C79">
+        <v>2018</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>343</v>
@@ -2830,41 +2863,32 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>284</v>
+      </c>
+      <c r="B80" t="s">
+        <v>285</v>
+      </c>
+      <c r="F80" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>286</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>287</v>
       </c>
-      <c r="F80" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="F81" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>56</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>192</v>
-      </c>
-      <c r="C81">
-        <v>2017</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>57</v>
-      </c>
-      <c r="B82" t="s">
-        <v>193</v>
       </c>
       <c r="C82">
         <v>2017</v>
@@ -2876,15 +2900,15 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C83">
         <v>2017</v>
@@ -2899,496 +2923,502 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84">
+        <v>2017</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>109</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>195</v>
       </c>
-      <c r="C84">
-        <v>2018</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1</v>
-      </c>
-      <c r="F84" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="C85">
+        <v>2018</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>288</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>289</v>
-      </c>
-      <c r="F85" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>290</v>
-      </c>
-      <c r="B86" t="s">
-        <v>291</v>
       </c>
       <c r="F86" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>290</v>
+      </c>
+      <c r="B87" t="s">
+        <v>291</v>
+      </c>
+      <c r="F87" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>59</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>196</v>
       </c>
-      <c r="C87">
-        <v>2018</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="C88">
+        <v>2018</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>60</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>197</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>2022</v>
       </c>
-      <c r="D88" t="s">
-        <v>1</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="D89" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>316</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>317</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F90" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>61</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>198</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <v>2017</v>
       </c>
-      <c r="D90" t="s">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>110</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>199</v>
       </c>
-      <c r="C91">
-        <v>2018</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="C92">
+        <v>2018</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>292</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>293</v>
       </c>
-      <c r="F92" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="F93" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>62</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>200</v>
       </c>
-      <c r="C93">
-        <v>2018</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="C94">
+        <v>2018</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>63</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>201</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>2017</v>
       </c>
-      <c r="D94" t="s">
-        <v>1</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="D95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>64</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>202</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <v>2024</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="G96" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>65</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>203</v>
       </c>
-      <c r="C96">
-        <v>2018</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1</v>
-      </c>
-      <c r="F96" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="C97">
+        <v>2018</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>66</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>204</v>
       </c>
-      <c r="C97">
+      <c r="C98">
         <v>2026</v>
       </c>
-      <c r="F97" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="F98" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>67</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>205</v>
       </c>
-      <c r="C98">
+      <c r="C99">
         <v>2023</v>
       </c>
-      <c r="F98" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="F99" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>68</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>206</v>
       </c>
-      <c r="C99">
+      <c r="C100">
         <v>2017</v>
       </c>
-      <c r="D99" t="s">
-        <v>1</v>
-      </c>
-      <c r="E99" t="s">
-        <v>1</v>
-      </c>
-      <c r="F99" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="D100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>294</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>295</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F101" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>69</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>207</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>2025</v>
       </c>
-      <c r="F101" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="F102" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>70</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>208</v>
       </c>
-      <c r="C102">
-        <v>2018</v>
-      </c>
-      <c r="D102" t="s">
-        <v>1</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="C103">
+        <v>2018</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>296</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>297</v>
       </c>
-      <c r="F103" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="F104" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>71</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>209</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>2017</v>
       </c>
-      <c r="D104" t="s">
-        <v>1</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="D105" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>111</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>210</v>
       </c>
-      <c r="C105">
-        <v>2018</v>
-      </c>
-      <c r="D105" t="s">
-        <v>1</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="C106">
+        <v>2018</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>298</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>299</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F107" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>72</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>211</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>2020</v>
       </c>
-      <c r="D107" t="s">
-        <v>1</v>
-      </c>
-      <c r="E107" t="s">
-        <v>1</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="D108" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>73</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>212</v>
       </c>
-      <c r="C108">
-        <v>2018</v>
-      </c>
-      <c r="D108" t="s">
-        <v>1</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="C109">
+        <v>2018</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>74</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>213</v>
       </c>
-      <c r="C109">
+      <c r="C110">
         <v>2017</v>
       </c>
-      <c r="D109" t="s">
-        <v>1</v>
-      </c>
-      <c r="E109" t="s">
-        <v>1</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="D110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="G110" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>75</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>214</v>
       </c>
-      <c r="C110">
+      <c r="C111">
         <v>2020</v>
       </c>
-      <c r="F110" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="F111" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>76</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>215</v>
       </c>
-      <c r="C111">
-        <v>2018</v>
-      </c>
-      <c r="D111" t="s">
-        <v>1</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="C112">
+        <v>2018</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>77</v>
-      </c>
-      <c r="B112" t="s">
-        <v>216</v>
-      </c>
-      <c r="C112">
-        <v>2018</v>
-      </c>
-      <c r="D112" t="s">
-        <v>1</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1</v>
-      </c>
-      <c r="F112" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B113" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C113">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D113" t="s">
         <v>1</v>
@@ -3397,32 +3427,35 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B114" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C114">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D114" t="s">
         <v>1</v>
       </c>
+      <c r="E114" t="s">
+        <v>1</v>
+      </c>
       <c r="F114" t="s">
-        <v>253</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B115" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C115">
         <v>2017</v>
@@ -3430,56 +3463,53 @@
       <c r="D115" t="s">
         <v>1</v>
       </c>
-      <c r="E115" t="s">
-        <v>1</v>
-      </c>
       <c r="F115" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B116" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C116">
-        <v>2018</v>
+        <v>2017</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>344</v>
+        <v>253</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B117" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C117">
-        <v>2017</v>
-      </c>
-      <c r="D117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1</v>
+        <v>2018</v>
       </c>
       <c r="F117" t="s">
-        <v>253</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B118" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C118">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D118" t="s">
         <v>1</v>
@@ -3488,54 +3518,57 @@
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>342</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B119" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C119">
-        <v>2025</v>
+        <v>2018</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>261</v>
+        <v>342</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B120" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C120">
-        <v>2018</v>
-      </c>
-      <c r="D120" t="s">
-        <v>1</v>
-      </c>
-      <c r="E120" t="s">
-        <v>1</v>
+        <v>2025</v>
       </c>
       <c r="F120" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B121" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C121">
         <v>2018</v>
       </c>
       <c r="D121" t="s">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
         <v>1</v>
       </c>
       <c r="F121" t="s">
@@ -3544,18 +3577,15 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B122" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C122">
         <v>2018</v>
       </c>
       <c r="D122" t="s">
-        <v>1</v>
-      </c>
-      <c r="E122" t="s">
         <v>1</v>
       </c>
       <c r="F122" t="s">
@@ -3564,15 +3594,18 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B123" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C123">
         <v>2018</v>
       </c>
       <c r="D123" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
         <v>1</v>
       </c>
       <c r="F123" t="s">
@@ -3581,18 +3614,15 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B124" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C124">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D124" t="s">
-        <v>1</v>
-      </c>
-      <c r="E124" t="s">
         <v>1</v>
       </c>
       <c r="F124" t="s">
@@ -3601,13 +3631,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C125">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D125" t="s">
         <v>1</v>
@@ -3621,10 +3651,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>300</v>
+        <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>301</v>
+        <v>229</v>
+      </c>
+      <c r="C126">
+        <v>2018</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1</v>
       </c>
       <c r="F126" t="s">
         <v>342</v>
@@ -3632,98 +3671,89 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="B127" t="s">
-        <v>230</v>
-      </c>
-      <c r="C127">
-        <v>2017</v>
-      </c>
-      <c r="D127" t="s">
-        <v>1</v>
-      </c>
-      <c r="E127" t="s">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="F127" t="s">
-        <v>261</v>
+        <v>342</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>85</v>
+      </c>
+      <c r="B128" t="s">
+        <v>230</v>
+      </c>
+      <c r="C128">
+        <v>2017</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>302</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>303</v>
       </c>
-      <c r="F128" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="F129" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>86</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>231</v>
       </c>
-      <c r="C129">
-        <v>2018</v>
-      </c>
-      <c r="D129" t="s">
-        <v>1</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="C130">
+        <v>2018</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>118</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>232</v>
       </c>
-      <c r="C130">
-        <v>2018</v>
-      </c>
-      <c r="D130" t="s">
-        <v>1</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="C131">
+        <v>2018</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>119</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>233</v>
-      </c>
-      <c r="C131">
-        <v>2017</v>
-      </c>
-      <c r="D131" t="s">
-        <v>1</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1</v>
-      </c>
-      <c r="F131" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>87</v>
-      </c>
-      <c r="B132" t="s">
-        <v>234</v>
       </c>
       <c r="C132">
         <v>2017</v>
@@ -3738,12 +3768,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="B133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C133">
         <v>2017</v>
@@ -3755,15 +3785,15 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C134">
         <v>2017</v>
@@ -3775,371 +3805,392 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>88</v>
+      </c>
+      <c r="B135" t="s">
+        <v>236</v>
+      </c>
+      <c r="C135">
+        <v>2017</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="G135" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>304</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>305</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F136" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>306</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>307</v>
       </c>
-      <c r="F136" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="F137" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>89</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>237</v>
       </c>
-      <c r="C137">
+      <c r="C138">
         <v>2017</v>
       </c>
-      <c r="D137" t="s">
-        <v>1</v>
-      </c>
-      <c r="E137" t="s">
-        <v>1</v>
-      </c>
-      <c r="F137" t="s">
+      <c r="D138" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>90</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>238</v>
       </c>
-      <c r="C138">
-        <v>2018</v>
-      </c>
-      <c r="D138" t="s">
-        <v>1</v>
-      </c>
-      <c r="E138" t="s">
-        <v>1</v>
-      </c>
-      <c r="F138" t="s">
+      <c r="C139">
+        <v>2018</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="G139" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>308</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>309</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F140" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>91</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>239</v>
       </c>
-      <c r="C140">
+      <c r="C141">
         <v>2023</v>
       </c>
-      <c r="F140" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="F141" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>310</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>311</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F142" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>121</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>240</v>
       </c>
-      <c r="C142">
-        <v>2018</v>
-      </c>
-      <c r="F142" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="C143">
+        <v>2018</v>
+      </c>
+      <c r="F143" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>92</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>241</v>
       </c>
-      <c r="C143">
+      <c r="C144">
         <v>2024</v>
       </c>
-      <c r="F143" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="F144" t="s">
+        <v>342</v>
+      </c>
+      <c r="G144" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>93</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>242</v>
       </c>
-      <c r="C144">
-        <v>2018</v>
-      </c>
-      <c r="D144" t="s">
-        <v>1</v>
-      </c>
-      <c r="E144" t="s">
-        <v>1</v>
-      </c>
-      <c r="F144" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="C145">
+        <v>2018</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>122</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>243</v>
       </c>
-      <c r="C145">
+      <c r="C146">
         <v>2017</v>
       </c>
-      <c r="E145" t="s">
-        <v>1</v>
-      </c>
-      <c r="F145" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="E146" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>94</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>244</v>
-      </c>
-      <c r="C146">
-        <v>2023</v>
-      </c>
-      <c r="F146" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>95</v>
-      </c>
-      <c r="B147" t="s">
-        <v>245</v>
       </c>
       <c r="C147">
         <v>2023</v>
       </c>
       <c r="F147" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>95</v>
+      </c>
+      <c r="B148" t="s">
+        <v>245</v>
+      </c>
+      <c r="C148">
+        <v>2023</v>
+      </c>
+      <c r="F148" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>123</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>246</v>
       </c>
-      <c r="C148">
-        <v>2018</v>
-      </c>
-      <c r="D148" t="s">
-        <v>1</v>
-      </c>
-      <c r="E148" t="s">
-        <v>1</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="C149">
+        <v>2018</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1</v>
+      </c>
+      <c r="F149" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>124</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>126</v>
       </c>
-      <c r="C149">
+      <c r="C150">
         <v>2017</v>
       </c>
-      <c r="D149" t="s">
-        <v>1</v>
-      </c>
-      <c r="E149" t="s">
-        <v>1</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="D150" t="s">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>255</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>96</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>247</v>
       </c>
-      <c r="C151">
-        <v>2018</v>
-      </c>
-      <c r="D151" t="s">
-        <v>1</v>
-      </c>
-      <c r="E151" t="s">
-        <v>1</v>
-      </c>
-      <c r="F151" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="C152">
+        <v>2018</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>342</v>
+      </c>
+      <c r="G152" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>97</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>248</v>
       </c>
-      <c r="C152">
-        <v>2018</v>
-      </c>
-      <c r="D152" t="s">
-        <v>1</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1</v>
-      </c>
-      <c r="F152" t="s">
+      <c r="C153">
+        <v>2018</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>349</v>
+      </c>
+      <c r="B154" t="s">
+        <v>350</v>
+      </c>
+      <c r="G154" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>257</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B155" t="s">
         <v>258</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F155" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>312</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B156" t="s">
         <v>313</v>
       </c>
-      <c r="F154" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+      <c r="F156" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>314</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B157" t="s">
         <v>315</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F157" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>334</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B158" t="s">
         <v>326</v>
       </c>
-      <c r="F156" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+      <c r="F158" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>335</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B159" t="s">
         <v>327</v>
       </c>
-      <c r="F157" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+      <c r="F159" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>336</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B160" t="s">
         <v>328</v>
-      </c>
-      <c r="F158" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>337</v>
-      </c>
-      <c r="B159" t="s">
-        <v>329</v>
-      </c>
-      <c r="F159" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>338</v>
-      </c>
-      <c r="B160" t="s">
-        <v>330</v>
       </c>
       <c r="F160" t="s">
         <v>342</v>
@@ -4147,10 +4198,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B161" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F161" t="s">
         <v>342</v>
@@ -4158,10 +4209,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B162" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F162" t="s">
         <v>342</v>
@@ -4169,12 +4220,34 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>339</v>
+      </c>
+      <c r="B163" t="s">
+        <v>331</v>
+      </c>
+      <c r="F163" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>340</v>
+      </c>
+      <c r="B164" t="s">
+        <v>332</v>
+      </c>
+      <c r="F164" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>341</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B165" t="s">
         <v>333</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F165" t="s">
         <v>342</v>
       </c>
     </row>
